--- a/lab08/references/T2_latex_table_export.xlsx
+++ b/lab08/references/T2_latex_table_export.xlsx
@@ -27,13 +27,13 @@
     <t xml:space="preserve">l.p</t>
   </si>
   <si>
+    <t xml:space="preserve">U[V]</t>
+  </si>
+  <si>
     <t xml:space="preserve">I_a [µA]</t>
   </si>
   <si>
     <t xml:space="preserve">\Delta I_a [mA]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U[V]</t>
   </si>
   <si>
     <t xml:space="preserve">\Delta v [mV]</t>
@@ -57,7 +57,7 @@
     <numFmt numFmtId="165" formatCode="0.000000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -80,16 +80,139 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -97,8 +220,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -122,8 +260,56 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -136,19 +322,91 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -160,25 +418,25 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.57"/>
   </cols>
   <sheetData>
@@ -212,23 +470,26 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0.0168325082306035</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
+      <c r="D2" s="0" t="n">
+        <f aca="false">ROUND(0.0168325082306035, 4)</f>
+        <v>0.0168</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.000577350269189626</v>
+        <f aca="false">ROUND(0.000577350269189626,5)</f>
+        <v>0.00058</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.0952190457139047</v>
+        <f aca="false">ROUND(0.0952190457139047,5)</f>
+        <v>0.09522</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
@@ -239,25 +500,30 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>0.0168325082306035</v>
-      </c>
       <c r="D3" s="0" t="n">
-        <v>-0.016</v>
+        <f aca="false">ROUND(0.0168325082306035, 4)</f>
+        <v>0.0168</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.000605063082110728</v>
+        <f aca="false">ROUND(0.000605063082110728,5)</f>
+        <v>0.00061</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>-0.22314355131421</v>
+        <f aca="false">ROUND(-0.22314355131421,5)</f>
+        <v>-0.22314</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.107780641428165</v>
+        <f aca="false">ROUND(0.107780641428165,5)</f>
+        <v>0.10778</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.126491106406735</v>
+        <f aca="false">ROUND(0.126491106406735,5)</f>
+        <v>0.12649</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,25 +531,30 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
+        <v>-0.038</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>0.0168325082306035</v>
-      </c>
       <c r="D4" s="0" t="n">
-        <v>-0.038</v>
+        <f aca="false">ROUND(0.0168325082306035, 4)</f>
+        <v>0.0168</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.000643168199877243</v>
+        <f aca="false">ROUND(0.000643168199877243,5)</f>
+        <v>0.00064</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-0.510825623765991</v>
+        <f aca="false">ROUND(-0.510825623765991,5)</f>
+        <v>-0.51083</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.130866061016315</v>
+        <f aca="false">ROUND(0.130866061016315,5)</f>
+        <v>0.13087</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.194935886896179</v>
+        <f aca="false">ROUND(0.194935886896179,5)</f>
+        <v>0.19494</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,25 +562,30 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
+        <v>-0.041</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D5" s="0" t="n">
-        <v>-0.041</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.00064836435229995</v>
+        <f aca="false">ROUND(0.00064836435229995,5)</f>
+        <v>0.00065</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-0.510825623765991</v>
+        <f aca="false">ROUND(-0.510825623765991,5)</f>
+        <v>-0.51083</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.0682587669040341</v>
+        <f aca="false">ROUND(0.0682587669040341,5)</f>
+        <v>0.06826</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.202484567313166</v>
+        <f aca="false">ROUND(0.202484567313166,5)</f>
+        <v>0.20248</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -317,25 +593,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
+        <v>-0.047</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D6" s="0" t="n">
-        <v>-0.047</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.000658756657145363</v>
+        <f aca="false">ROUND(0.000658756657145363,5)</f>
+        <v>0.00066</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-0.579818495252942</v>
+        <f aca="false">ROUND(-0.579818495252942,5)</f>
+        <v>-0.57982</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.0683951106181033</v>
+        <f aca="false">ROUND(0.0683951106181033,5)</f>
+        <v>0.0684</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.216794833886788</v>
+        <f aca="false">ROUND(0.216794833886788,5)</f>
+        <v>0.21679</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,25 +624,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>-0.055</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>0.125</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D7" s="0" t="n">
-        <v>-0.055</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.000672613063605914</v>
+        <f aca="false">ROUND(0.000672613063605914,5)</f>
+        <v>0.00067</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-0.693147180559945</v>
+        <f aca="false">ROUND(-0.693147180559945,5)</f>
+        <v>-0.69315</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.0686634303444466</v>
+        <f aca="false">ROUND(0.0686634303444466,5)</f>
+        <v>0.06866</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.234520787991171</v>
+        <f aca="false">ROUND(0.234520787991171,5)</f>
+        <v>0.23452</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,25 +655,30 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>0.12</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D8" s="0" t="n">
-        <v>-0.058</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.000677809216028621</v>
+        <f aca="false">ROUND(0.000677809216028621,5)</f>
+        <v>0.00068</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-0.7339691750802</v>
+        <f aca="false">ROUND(-0.7339691750802,5)</f>
+        <v>-0.73397</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.0687756686088372</v>
+        <f aca="false">ROUND(0.0687756686088372,5)</f>
+        <v>0.06878</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.240831891575846</v>
+        <f aca="false">ROUND(0.240831891575846,5)</f>
+        <v>0.24083</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,25 +686,30 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
+        <v>-0.069</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>0.105</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D9" s="0" t="n">
-        <v>-0.069</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.000696861774911878</v>
+        <f aca="false">ROUND(0.000696861774911878,5)</f>
+        <v>0.0007</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-0.867500567704723</v>
+        <f aca="false">ROUND(-0.867500567704723,5)</f>
+        <v>-0.8675</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0.0692121739211856</v>
+        <f aca="false">ROUND(0.0692121739211856,5)</f>
+        <v>0.06921</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.262678510731274</v>
+        <f aca="false">ROUND(0.262678510731274,5)</f>
+        <v>0.26268</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,51 +717,61 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
+        <v>-0.085</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>0.085</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D10" s="0" t="n">
-        <v>-0.085</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.00072457458783298</v>
+        <f aca="false">ROUND(0.00072457458783298,5)</f>
+        <v>0.00072</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-1.07880966137193</v>
+        <f aca="false">ROUND(-1.07880966137193,5)</f>
+        <v>-1.07881</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.0701818366536416</v>
+        <f aca="false">ROUND(0.0701818366536416,5)</f>
+        <v>0.07018</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.291547594742265</v>
+        <f aca="false">ROUND(0.291547594742265,5)</f>
+        <v>0.29155</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>0.07</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>-0.1</v>
+      <c r="D11" s="0" t="n">
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.000750555349946513</v>
+        <f aca="false">ROUND(0.000750555349946513,5)</f>
+        <v>0.00075</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-1.27296567581289</v>
+        <f aca="false">ROUND(-1.27296567581289,5)</f>
+        <v>-1.27297</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.0714952070131302</v>
+        <f aca="false">ROUND(0.0714952070131302,5)</f>
+        <v>0.0715</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.316227766016838</v>
+        <f aca="false">ROUND(0.316227766016838,5)</f>
+        <v>0.31623</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,25 +779,30 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>-0.112</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>0.06</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D12" s="0" t="n">
-        <v>-0.112</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.00077133995963734</v>
+        <f aca="false">ROUND(0.00077133995963734,5)</f>
+        <v>0.00077</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>-1.42711635564015</v>
+        <f aca="false">ROUND(-1.42711635564015,5)</f>
+        <v>-1.42712</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.0729408689992817</v>
+        <f aca="false">ROUND(0.0729408689992817,5)</f>
+        <v>0.07294</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.33466401061363</v>
+        <f aca="false">ROUND(0.33466401061363,5)</f>
+        <v>0.33466</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,25 +810,30 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D13" s="0" t="n">
-        <v>-0.125</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.000793856620135735</v>
+        <f aca="false">ROUND(0.000793856620135735,5)</f>
+        <v>0.00079</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>-1.6094379124341</v>
+        <f aca="false">ROUND(-1.6094379124341,5)</f>
+        <v>-1.60944</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.0752772652709081</v>
+        <f aca="false">ROUND(0.0752772652709081,5)</f>
+        <v>0.07528</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.353553390593274</v>
+        <f aca="false">ROUND(0.353553390593274,5)</f>
+        <v>0.35355</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,25 +841,30 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
+        <v>-0.141</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>0.04</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D14" s="0" t="n">
-        <v>-0.141</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.000821569433056838</v>
+        <f aca="false">ROUND(0.000821569433056838,5)</f>
+        <v>0.00082</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>-1.83258146374831</v>
+        <f aca="false">ROUND(-1.83258146374831,5)</f>
+        <v>-1.83258</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.0793987825263503</v>
+        <f aca="false">ROUND(0.0793987825263503,5)</f>
+        <v>0.0794</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.375499667110372</v>
+        <f aca="false">ROUND(0.375499667110372,5)</f>
+        <v>0.3755</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
